--- a/material util/Presupuesto De Costes.xlsx
+++ b/material util/Presupuesto De Costes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Gómez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Gómez\Desktop\tfg_inmobiliaria\material util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DABC4A8-3C09-4D5F-A425-D67A33EE1DD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57DEE9D-B99A-43CE-AF25-5FFE22B703D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,9 +375,6 @@
     <t>Coste/Trimestre (€)</t>
   </si>
   <si>
-    <t>BENEFICIO (25%):</t>
-  </si>
-  <si>
     <t>PRESUPUESTO DEL CLIENTE</t>
   </si>
   <si>
@@ -427,6 +424,9 @@
   </si>
   <si>
     <t>Licencias</t>
+  </si>
+  <si>
+    <t>BENEFICIO (14%):</t>
   </si>
 </sst>
 </file>
@@ -739,38 +739,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -783,20 +753,50 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:K53"/>
+    <sheetView tabSelected="1" topLeftCell="G43" workbookViewId="0">
+      <selection activeCell="S70" sqref="S70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,19 +1111,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
@@ -1137,37 +1137,37 @@
       <c r="Y1" s="10"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="25" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="21"/>
@@ -1192,11 +1192,11 @@
       <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4">
         <f>SUM(J4:J12)</f>
@@ -1210,19 +1210,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="3">
         <f>G5</f>
         <v>32.25</v>
       </c>
-      <c r="K4" s="37"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -1230,23 +1230,23 @@
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="29">
         <v>1</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="29">
         <v>10.75</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="29">
         <f>F5*3</f>
         <v>32.25</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="39"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
@@ -1254,23 +1254,23 @@
         <v>105</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="3">
         <f>SUM(G7:I9)</f>
         <v>161.93999999999997</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="M6" s="24" t="s">
+      <c r="K6" s="27"/>
+      <c r="M6" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="N6" s="24"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -1278,23 +1278,23 @@
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="29">
         <v>1</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="29">
         <v>3.38</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="29">
         <f t="shared" ref="G7:G19" si="0">F7*3</f>
         <v>10.14</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="39"/>
+      <c r="K7" s="29"/>
       <c r="M7" s="20" t="s">
         <v>103</v>
       </c>
@@ -1308,23 +1308,23 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="29">
         <v>1</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="29">
         <v>47.3</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="29">
         <f t="shared" si="0"/>
         <v>141.89999999999998</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="29"/>
       <c r="M8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1338,20 +1338,20 @@
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="29">
         <v>1</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29">
         <v>9.9</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="39"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -1359,19 +1359,19 @@
         <v>106</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="3">
         <f>SUM(I11:I12)</f>
         <v>170</v>
       </c>
-      <c r="K10" s="37"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -1379,20 +1379,20 @@
       <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="29">
         <v>1</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39">
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29">
         <v>120</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="39"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -1400,20 +1400,20 @@
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="29">
         <v>1</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39">
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29">
         <v>50</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="39"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1441,7 +1441,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="3"/>
@@ -1461,21 +1461,21 @@
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39">
+      <c r="E15" s="29"/>
+      <c r="F15" s="29">
         <v>500</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="29">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="39"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -1483,21 +1483,21 @@
       <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39">
+      <c r="E16" s="29"/>
+      <c r="F16" s="29">
         <v>35.450000000000003</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="29">
         <f t="shared" si="0"/>
         <v>106.35000000000001</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="39"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -1505,21 +1505,21 @@
       <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39">
+      <c r="E17" s="29"/>
+      <c r="F17" s="29">
         <v>8.58</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="29">
         <f t="shared" si="0"/>
         <v>25.740000000000002</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="39"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -1527,21 +1527,21 @@
       <c r="C18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39">
+      <c r="E18" s="29"/>
+      <c r="F18" s="29">
         <v>29.99</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="29">
         <f t="shared" si="0"/>
         <v>89.97</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="39"/>
+      <c r="K18" s="29"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -1549,21 +1549,21 @@
       <c r="C19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39">
+      <c r="E19" s="29"/>
+      <c r="F19" s="29">
         <v>50</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="29">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="39"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -1591,19 +1591,19 @@
         <v>48</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="3">
         <f>SUM(I22:I25)</f>
         <v>210</v>
       </c>
-      <c r="K21" s="37"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -1611,21 +1611,21 @@
       <c r="C22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39">
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29">
         <v>8</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="29">
         <f>H22*$N$8</f>
         <v>60</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="39"/>
+      <c r="K22" s="29"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -1633,21 +1633,21 @@
       <c r="C23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39">
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29">
         <v>8</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="29">
         <f t="shared" ref="I23:I50" si="1">H23*$N$8</f>
         <v>60</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="39"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -1655,21 +1655,21 @@
       <c r="C24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39">
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29">
         <v>6</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="29">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="39"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -1677,21 +1677,21 @@
       <c r="C25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39">
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29">
         <v>6</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="29">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="39"/>
+      <c r="K25" s="29"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
@@ -1699,19 +1699,19 @@
         <v>107</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
       <c r="J26" s="3">
         <f>SUM(I27:I31)</f>
         <v>435</v>
       </c>
-      <c r="K26" s="37"/>
+      <c r="K26" s="27"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -1719,21 +1719,21 @@
       <c r="C27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39">
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29">
         <v>12</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="39"/>
+      <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -1741,21 +1741,21 @@
       <c r="C28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39">
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29">
         <v>6</v>
       </c>
-      <c r="I28" s="39">
+      <c r="I28" s="29">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="39"/>
+      <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -1763,546 +1763,546 @@
       <c r="C29" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39">
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29">
         <v>12</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="39"/>
+      <c r="K29" s="29"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39">
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29">
         <v>12</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="39"/>
+      <c r="K30" s="29"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39">
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29">
         <v>16</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="29">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="39"/>
+      <c r="K31" s="29"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
       <c r="J32" s="3">
         <f>SUM(I33:I35)</f>
         <v>360</v>
       </c>
-      <c r="K32" s="37"/>
+      <c r="K32" s="27"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39">
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29">
         <v>16</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="29">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="39"/>
+      <c r="K33" s="29"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39">
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29">
         <v>16</v>
       </c>
-      <c r="I34" s="39">
+      <c r="I34" s="29">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="39"/>
+      <c r="K34" s="29"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39">
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29">
         <v>16</v>
       </c>
-      <c r="I35" s="39">
+      <c r="I35" s="29">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="39"/>
+      <c r="K35" s="29"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
       <c r="J36" s="3">
         <f>SUM(I37:I42)</f>
         <v>765</v>
       </c>
-      <c r="K36" s="37"/>
+      <c r="K36" s="27"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39">
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29">
         <v>6</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="29">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="39"/>
+      <c r="K37" s="29"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39">
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29">
         <v>24</v>
       </c>
-      <c r="I38" s="39">
+      <c r="I38" s="29">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="39"/>
+      <c r="K38" s="29"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39">
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29">
         <v>24</v>
       </c>
-      <c r="I39" s="39">
+      <c r="I39" s="29">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="39"/>
+      <c r="K39" s="29"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39">
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29">
         <v>24</v>
       </c>
-      <c r="I40" s="39">
+      <c r="I40" s="29">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="39"/>
+      <c r="K40" s="29"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39">
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29">
         <v>16</v>
       </c>
-      <c r="I41" s="39">
+      <c r="I41" s="29">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="39"/>
+      <c r="K41" s="29"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39">
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29">
         <v>8</v>
       </c>
-      <c r="I42" s="39">
+      <c r="I42" s="29">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="39"/>
+      <c r="K42" s="29"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="3">
         <f>SUM(I44:I46)</f>
         <v>405</v>
       </c>
-      <c r="K43" s="37"/>
+      <c r="K43" s="27"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39">
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29">
         <v>18</v>
       </c>
-      <c r="I44" s="39">
+      <c r="I44" s="29">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="39"/>
+      <c r="K44" s="29"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39">
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29">
         <v>24</v>
       </c>
-      <c r="I45" s="39">
+      <c r="I45" s="29">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="39"/>
+      <c r="K45" s="29"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39">
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29">
         <v>12</v>
       </c>
-      <c r="I46" s="39">
+      <c r="I46" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="39"/>
+      <c r="K46" s="29"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
       <c r="J47" s="3">
         <f>SUM(I48:I50)</f>
         <v>330</v>
       </c>
-      <c r="K47" s="37"/>
+      <c r="K47" s="27"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39">
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29">
         <v>24</v>
       </c>
-      <c r="I48" s="39">
+      <c r="I48" s="29">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="39"/>
+      <c r="K48" s="29"/>
     </row>
     <row r="49" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39">
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29">
         <v>12</v>
       </c>
-      <c r="I49" s="39">
+      <c r="I49" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="J49" s="2"/>
-      <c r="K49" s="39"/>
+      <c r="K49" s="29"/>
     </row>
     <row r="50" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39">
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29">
         <v>8</v>
       </c>
-      <c r="I50" s="39">
+      <c r="I50" s="29">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
     </row>
     <row r="51" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="27">
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="45">
         <f>SUM(K3:K20)</f>
         <v>4741.25</v>
       </c>
-      <c r="K51" s="28"/>
+      <c r="K51" s="46"/>
     </row>
     <row r="52" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="45">
+        <f>J51*0.14</f>
+        <v>663.77500000000009</v>
+      </c>
+      <c r="K52" s="46"/>
+    </row>
+    <row r="53" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="45">
+        <f>J51+J52</f>
+        <v>5405.0249999999996</v>
+      </c>
+      <c r="K53" s="46"/>
+    </row>
+    <row r="56" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R56" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="27">
-        <f>J51*0.25</f>
-        <v>1185.3125</v>
-      </c>
-      <c r="K52" s="28"/>
-    </row>
-    <row r="53" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="27">
-        <f>J51+J52</f>
-        <v>5926.5625</v>
-      </c>
-      <c r="K53" s="28"/>
-    </row>
-    <row r="56" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R56" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="S56" s="45"/>
-      <c r="T56" s="45"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
     </row>
     <row r="57" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R57" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="S57" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="S57" s="4" t="s">
+      <c r="T57" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="T57" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -2318,7 +2318,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="R58" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S58" s="3">
         <f>S59+S60</f>
@@ -2330,28 +2330,28 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R59" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39">
+      <c r="R59" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29">
         <f>J4+J6</f>
         <v>194.18999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R60" s="46" t="s">
+      <c r="R60" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39">
+      <c r="S60" s="29"/>
+      <c r="T60" s="29">
         <f>J10+J14</f>
         <v>2042.06</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R61" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S61" s="3">
         <v>755.6</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="62" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R62" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S62" s="3">
         <v>515.5</v>
@@ -2373,11 +2373,11 @@
     </row>
     <row r="63" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R63" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S63" s="3">
         <f>SUM(S64:S68)</f>
-        <v>1921.92</v>
+        <v>1500.92</v>
       </c>
       <c r="T63" s="3">
         <f>SUM(T64:T68)</f>
@@ -2385,56 +2385,56 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R64" s="46" t="s">
+      <c r="R64" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="S64" s="29">
+        <v>326.64</v>
+      </c>
+      <c r="T64" s="29"/>
+    </row>
+    <row r="65" spans="18:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R65" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="S65" s="29">
+        <v>378.23</v>
+      </c>
+      <c r="T65" s="29"/>
+    </row>
+    <row r="66" spans="18:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R66" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="S64" s="39">
-        <v>476.64</v>
-      </c>
-      <c r="T64" s="39"/>
-    </row>
-    <row r="65" spans="18:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R65" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="S65" s="39">
-        <v>379.23</v>
-      </c>
-      <c r="T65" s="39"/>
-    </row>
-    <row r="66" spans="18:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R66" s="46" t="s">
+      <c r="S66" s="29">
+        <v>316.08999999999997</v>
+      </c>
+      <c r="T66" s="29"/>
+    </row>
+    <row r="67" spans="18:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R67" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="S66" s="39">
-        <v>486.09</v>
-      </c>
-      <c r="T66" s="39"/>
-    </row>
-    <row r="67" spans="18:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R67" s="46" t="s">
+      <c r="S67" s="29">
+        <v>234.51</v>
+      </c>
+      <c r="T67" s="29"/>
+    </row>
+    <row r="68" spans="18:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R68" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="S67" s="39">
-        <v>334.51</v>
-      </c>
-      <c r="T67" s="39"/>
-    </row>
-    <row r="68" spans="18:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R68" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="S68" s="39">
+      <c r="S68" s="29">
         <v>245.45</v>
       </c>
-      <c r="T68" s="39"/>
+      <c r="T68" s="29"/>
     </row>
     <row r="69" spans="18:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R69" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S69" s="3">
-        <v>425.93</v>
+        <v>325.39999999999998</v>
       </c>
       <c r="T69" s="3">
         <v>0</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="70" spans="18:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R70" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S70" s="3">
         <v>71.36</v>
@@ -2453,11 +2453,11 @@
     </row>
     <row r="71" spans="18:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R71" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S71" s="23">
         <f>S58+S61+S62+S63+S69+S70</f>
-        <v>3690.31</v>
+        <v>3168.78</v>
       </c>
       <c r="T71" s="23">
         <f>T58+T61+T62+T63+T69+T70</f>
@@ -2466,26 +2466,26 @@
     </row>
     <row r="72" spans="18:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R72" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="S72" s="25">
+        <v>128</v>
+      </c>
+      <c r="S72" s="36">
         <f>S71+T71</f>
-        <v>5926.5599999999995</v>
-      </c>
-      <c r="T72" s="26"/>
+        <v>5405.0300000000007</v>
+      </c>
+      <c r="T72" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="A51:I51"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="S72:T72"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
